--- a/englishOutputs/english82Comperation_3_Common_alpha=0.26.xlsx
+++ b/englishOutputs/english82Comperation_3_Common_alpha=0.26.xlsx
@@ -70,6 +70,9 @@
     <t>bc</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>Well...since Christmas...</t>
   </si>
   <si>
@@ -131,9 +134,6 @@
   </si>
   <si>
     <t>well, maybe I should just get a second opinion, you know.</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>What concerns you the most...would you say?</t>
@@ -3521,6 +3521,9 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3630,7 +3633,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3658,7 +3661,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -3666,7 +3669,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3680,13 +3683,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -3700,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -3708,7 +3711,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3722,10 +3725,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -3736,7 +3739,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3750,7 +3753,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3764,13 +3767,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -3792,13 +3795,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -3806,7 +3809,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -3820,10 +3823,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -3840,7 +3843,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -3848,7 +3851,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -3862,13 +3865,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -3876,7 +3879,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -3890,10 +3893,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -3904,13 +3907,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -3918,7 +3921,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -3932,13 +3935,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -3946,10 +3949,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -3960,13 +3963,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -3991,10 +3994,10 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -4005,10 +4008,10 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -4016,13 +4019,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -4047,10 +4050,10 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -4058,13 +4061,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -4089,10 +4092,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -4117,10 +4120,10 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -4134,7 +4137,7 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -4159,10 +4162,10 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -4187,10 +4190,10 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -4201,10 +4204,10 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -4212,13 +4215,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -4232,7 +4235,7 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -4257,10 +4260,10 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -4268,13 +4271,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -4324,13 +4327,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -4372,7 +4375,7 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -4394,13 +4397,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -4464,13 +4467,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -4481,10 +4484,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -4492,13 +4495,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -4509,10 +4512,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -4526,7 +4529,7 @@
         <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -4582,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -4610,7 +4613,7 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -4632,13 +4635,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -4649,10 +4652,10 @@
         <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -4677,10 +4680,10 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -4702,13 +4705,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -4733,10 +4736,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -4747,10 +4750,10 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -4758,13 +4761,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -4778,7 +4781,7 @@
         <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -4817,10 +4820,10 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -4828,13 +4831,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -4848,7 +4851,7 @@
         <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -4884,13 +4887,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -4901,10 +4904,10 @@
         <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -4926,13 +4929,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -4946,7 +4949,7 @@
         <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -4974,7 +4977,7 @@
         <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -5002,7 +5005,7 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -5010,13 +5013,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -5041,7 +5044,7 @@
         <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -5055,10 +5058,10 @@
         <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -5069,7 +5072,7 @@
         <v>100</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -5083,7 +5086,7 @@
         <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -5094,13 +5097,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -5111,7 +5114,7 @@
         <v>102</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -5139,10 +5142,10 @@
         <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -5192,13 +5195,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -5209,10 +5212,10 @@
         <v>106</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -5223,10 +5226,10 @@
         <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -5262,13 +5265,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -5293,10 +5296,10 @@
         <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -5307,10 +5310,10 @@
         <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -5338,7 +5341,7 @@
         <v>67</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -5366,7 +5369,7 @@
         <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -5405,10 +5408,10 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -5447,10 +5450,10 @@
         <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -5458,13 +5461,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -5492,7 +5495,7 @@
         <v>67</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -5506,7 +5509,7 @@
         <v>67</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -5520,7 +5523,7 @@
         <v>67</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -5556,13 +5559,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -5573,10 +5576,10 @@
         <v>128</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
@@ -5640,13 +5643,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
@@ -5696,13 +5699,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
@@ -5752,13 +5755,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
         <v>9</v>
@@ -5766,13 +5769,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -5828,7 +5831,7 @@
         <v>67</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -5864,13 +5867,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -5884,7 +5887,7 @@
         <v>67</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -5898,7 +5901,7 @@
         <v>67</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -5940,7 +5943,7 @@
         <v>17</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -5976,13 +5979,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -5996,7 +5999,7 @@
         <v>111</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -6010,7 +6013,7 @@
         <v>58</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -6018,13 +6021,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D180" t="s">
         <v>9</v>
@@ -6066,7 +6069,7 @@
         <v>111</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -6080,7 +6083,7 @@
         <v>58</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -6094,7 +6097,7 @@
         <v>58</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -6102,13 +6105,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B186" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
@@ -6122,7 +6125,7 @@
         <v>58</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -6147,10 +6150,10 @@
         <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
@@ -6158,13 +6161,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B190" t="s">
         <v>111</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -6206,7 +6209,7 @@
         <v>67</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -6276,7 +6279,7 @@
         <v>67</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -6312,13 +6315,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B201" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -6332,7 +6335,7 @@
         <v>58</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -6382,13 +6385,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
@@ -6402,7 +6405,7 @@
         <v>67</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
@@ -6466,13 +6469,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B212" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -6486,7 +6489,7 @@
         <v>58</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -6514,7 +6517,7 @@
         <v>67</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -6522,13 +6525,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B216" t="s">
         <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
@@ -6539,7 +6542,7 @@
         <v>12</v>
       </c>
       <c r="B217" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -6556,7 +6559,7 @@
         <v>58</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -6564,13 +6567,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B219" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D219" t="s">
         <v>9</v>
@@ -6584,7 +6587,7 @@
         <v>58</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -6609,7 +6612,7 @@
         <v>182</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -6623,10 +6626,10 @@
         <v>183</v>
       </c>
       <c r="B223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
@@ -6640,7 +6643,7 @@
         <v>58</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
@@ -6651,7 +6654,7 @@
         <v>185</v>
       </c>
       <c r="B225" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -6665,10 +6668,10 @@
         <v>186</v>
       </c>
       <c r="B226" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -6718,13 +6721,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B230" t="s">
         <v>111</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -6738,7 +6741,7 @@
         <v>58</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -6746,13 +6749,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B232" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
@@ -6766,7 +6769,7 @@
         <v>58</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -6788,13 +6791,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
@@ -6808,7 +6811,7 @@
         <v>111</v>
       </c>
       <c r="C236" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
@@ -6816,13 +6819,13 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B237" t="s">
         <v>111</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
@@ -6847,10 +6850,10 @@
         <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -6878,7 +6881,7 @@
         <v>67</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
@@ -6889,10 +6892,10 @@
         <v>198</v>
       </c>
       <c r="B242" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D242" t="s">
         <v>9</v>
@@ -6903,10 +6906,10 @@
         <v>199</v>
       </c>
       <c r="B243" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D243" t="s">
         <v>9</v>
@@ -6914,13 +6917,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B244" t="s">
         <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
@@ -6956,13 +6959,13 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B247" t="s">
         <v>17</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
@@ -6973,10 +6976,10 @@
         <v>202</v>
       </c>
       <c r="B248" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
@@ -6998,13 +7001,13 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B250" t="s">
         <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
@@ -7015,10 +7018,10 @@
         <v>203</v>
       </c>
       <c r="B251" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
         <v>9</v>
@@ -7026,13 +7029,13 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
@@ -7099,10 +7102,10 @@
         <v>208</v>
       </c>
       <c r="B257" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
         <v>9</v>
@@ -7113,10 +7116,10 @@
         <v>209</v>
       </c>
       <c r="B258" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
         <v>9</v>
@@ -7124,13 +7127,13 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B259" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
@@ -7144,7 +7147,7 @@
         <v>67</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D260" t="s">
         <v>7</v>
@@ -7183,10 +7186,10 @@
         <v>213</v>
       </c>
       <c r="B263" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
         <v>9</v>
@@ -7228,7 +7231,7 @@
         <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D266" t="s">
         <v>9</v>
@@ -7264,13 +7267,13 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B269" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
@@ -7298,7 +7301,7 @@
         <v>67</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D271" t="s">
         <v>7</v>
@@ -7337,7 +7340,7 @@
         <v>221</v>
       </c>
       <c r="B274" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C274" t="s">
         <v>15</v>
@@ -7348,13 +7351,13 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B275" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D275" t="s">
         <v>7</v>
@@ -7368,7 +7371,7 @@
         <v>67</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D276" t="s">
         <v>7</v>
@@ -7407,10 +7410,10 @@
         <v>12</v>
       </c>
       <c r="B279" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D279" t="s">
         <v>9</v>
@@ -7421,10 +7424,10 @@
         <v>74</v>
       </c>
       <c r="B280" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D280" t="s">
         <v>7</v>
@@ -7438,7 +7441,7 @@
         <v>58</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D281" t="s">
         <v>7</v>
@@ -7449,10 +7452,10 @@
         <v>227</v>
       </c>
       <c r="B282" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D282" t="s">
         <v>9</v>
@@ -7463,10 +7466,10 @@
         <v>228</v>
       </c>
       <c r="B283" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D283" t="s">
         <v>7</v>
@@ -7474,13 +7477,13 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B284" t="s">
         <v>111</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D284" t="s">
         <v>7</v>
@@ -7494,7 +7497,7 @@
         <v>58</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D285" t="s">
         <v>7</v>
@@ -7508,7 +7511,7 @@
         <v>58</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D286" t="s">
         <v>7</v>
@@ -7522,7 +7525,7 @@
         <v>58</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D287" t="s">
         <v>7</v>
@@ -7536,7 +7539,7 @@
         <v>58</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D288" t="s">
         <v>7</v>
@@ -7544,13 +7547,13 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B289" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D289" t="s">
         <v>9</v>
@@ -7561,7 +7564,7 @@
         <v>233</v>
       </c>
       <c r="B290" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -7606,7 +7609,7 @@
         <v>58</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -7628,13 +7631,13 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B295" t="s">
         <v>111</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D295" t="s">
         <v>7</v>
@@ -7648,7 +7651,7 @@
         <v>111</v>
       </c>
       <c r="C296" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D296" t="s">
         <v>7</v>
@@ -7662,7 +7665,7 @@
         <v>111</v>
       </c>
       <c r="C297" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D297" t="s">
         <v>7</v>
@@ -7712,13 +7715,13 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D301" t="s">
         <v>9</v>
@@ -7743,10 +7746,10 @@
         <v>12</v>
       </c>
       <c r="B303" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D303" t="s">
         <v>9</v>
@@ -7785,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="B306" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
@@ -7897,10 +7900,10 @@
         <v>253</v>
       </c>
       <c r="B314" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D314" t="s">
         <v>7</v>
@@ -7908,13 +7911,13 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B315" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D315" t="s">
         <v>9</v>
@@ -8023,10 +8026,10 @@
         <v>12</v>
       </c>
       <c r="B323" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D323" t="s">
         <v>9</v>
@@ -8040,7 +8043,7 @@
         <v>235</v>
       </c>
       <c r="C324" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D324" t="s">
         <v>7</v>
@@ -8048,13 +8051,13 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B325" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D325" t="s">
         <v>9</v>
@@ -8068,7 +8071,7 @@
         <v>235</v>
       </c>
       <c r="C326" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D326" t="s">
         <v>7</v>
@@ -8079,10 +8082,10 @@
         <v>263</v>
       </c>
       <c r="B327" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D327" t="s">
         <v>9</v>
@@ -8093,10 +8096,10 @@
         <v>264</v>
       </c>
       <c r="B328" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
         <v>9</v>
@@ -8124,7 +8127,7 @@
         <v>17</v>
       </c>
       <c r="C330" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D330" t="s">
         <v>7</v>
@@ -8135,10 +8138,10 @@
         <v>266</v>
       </c>
       <c r="B331" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C331" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D331" t="s">
         <v>9</v>
@@ -8152,7 +8155,7 @@
         <v>235</v>
       </c>
       <c r="C332" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D332" t="s">
         <v>7</v>
@@ -8180,7 +8183,7 @@
         <v>235</v>
       </c>
       <c r="C334" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D334" t="s">
         <v>7</v>
@@ -8194,7 +8197,7 @@
         <v>271</v>
       </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D335" t="s">
         <v>7</v>
@@ -8205,10 +8208,10 @@
         <v>272</v>
       </c>
       <c r="B336" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C336" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D336" t="s">
         <v>7</v>
@@ -8219,10 +8222,10 @@
         <v>273</v>
       </c>
       <c r="B337" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C337" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
@@ -8233,10 +8236,10 @@
         <v>274</v>
       </c>
       <c r="B338" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
@@ -8247,10 +8250,10 @@
         <v>275</v>
       </c>
       <c r="B339" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C339" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D339" t="s">
         <v>7</v>
@@ -8258,13 +8261,13 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B340" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C340" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D340" t="s">
         <v>9</v>
@@ -8300,13 +8303,13 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B343" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C343" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D343" t="s">
         <v>7</v>
@@ -8328,13 +8331,13 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B345" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D345" t="s">
         <v>9</v>
@@ -8342,13 +8345,13 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C346" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -8362,7 +8365,7 @@
         <v>67</v>
       </c>
       <c r="C347" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D347" t="s">
         <v>7</v>
@@ -8401,7 +8404,7 @@
         <v>140</v>
       </c>
       <c r="B350" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C350" t="s">
         <v>15</v>
@@ -8426,13 +8429,13 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B352" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C352" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D352" t="s">
         <v>7</v>
@@ -8443,10 +8446,10 @@
         <v>282</v>
       </c>
       <c r="B353" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C353" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D353" t="s">
         <v>7</v>
@@ -8457,10 +8460,10 @@
         <v>283</v>
       </c>
       <c r="B354" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C354" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D354" t="s">
         <v>7</v>
@@ -8471,10 +8474,10 @@
         <v>284</v>
       </c>
       <c r="B355" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C355" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D355" t="s">
         <v>7</v>
@@ -8485,10 +8488,10 @@
         <v>285</v>
       </c>
       <c r="B356" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C356" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D356" t="s">
         <v>7</v>
@@ -8496,13 +8499,13 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B357" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C357" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D357" t="s">
         <v>9</v>
@@ -8513,10 +8516,10 @@
         <v>286</v>
       </c>
       <c r="B358" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C358" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D358" t="s">
         <v>7</v>
@@ -8527,10 +8530,10 @@
         <v>287</v>
       </c>
       <c r="B359" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C359" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D359" t="s">
         <v>9</v>
@@ -8541,10 +8544,10 @@
         <v>288</v>
       </c>
       <c r="B360" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C360" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D360" t="s">
         <v>7</v>
@@ -8558,7 +8561,7 @@
         <v>271</v>
       </c>
       <c r="C361" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D361" t="s">
         <v>7</v>
@@ -8569,10 +8572,10 @@
         <v>290</v>
       </c>
       <c r="B362" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D362" t="s">
         <v>9</v>
@@ -8586,7 +8589,7 @@
         <v>271</v>
       </c>
       <c r="C363" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
@@ -8625,10 +8628,10 @@
         <v>293</v>
       </c>
       <c r="B366" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C366" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D366" t="s">
         <v>9</v>
@@ -8642,7 +8645,7 @@
         <v>271</v>
       </c>
       <c r="C367" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D367" t="s">
         <v>7</v>
@@ -8656,7 +8659,7 @@
         <v>271</v>
       </c>
       <c r="C368" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D368" t="s">
         <v>7</v>
@@ -8670,7 +8673,7 @@
         <v>271</v>
       </c>
       <c r="C369" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D369" t="s">
         <v>7</v>
@@ -8678,13 +8681,13 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B370" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C370" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D370" t="s">
         <v>9</v>
@@ -8698,7 +8701,7 @@
         <v>271</v>
       </c>
       <c r="C371" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D371" t="s">
         <v>7</v>
@@ -8726,7 +8729,7 @@
         <v>235</v>
       </c>
       <c r="C373" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D373" t="s">
         <v>7</v>
@@ -8734,13 +8737,13 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B374" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C374" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D374" t="s">
         <v>9</v>
@@ -8779,10 +8782,10 @@
         <v>302</v>
       </c>
       <c r="B377" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C377" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D377" t="s">
         <v>7</v>
@@ -8793,10 +8796,10 @@
         <v>74</v>
       </c>
       <c r="B378" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C378" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D378" t="s">
         <v>9</v>
@@ -8807,10 +8810,10 @@
         <v>303</v>
       </c>
       <c r="B379" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C379" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D379" t="s">
         <v>7</v>
@@ -8832,13 +8835,13 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B381" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C381" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D381" t="s">
         <v>9</v>
@@ -8863,10 +8866,10 @@
         <v>12</v>
       </c>
       <c r="B383" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C383" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D383" t="s">
         <v>9</v>
@@ -8905,10 +8908,10 @@
         <v>307</v>
       </c>
       <c r="B386" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C386" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D386" t="s">
         <v>9</v>
@@ -8916,13 +8919,13 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B387" t="s">
         <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
@@ -8947,7 +8950,7 @@
         <v>309</v>
       </c>
       <c r="B389" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C389" t="s">
         <v>6</v>
@@ -8961,10 +8964,10 @@
         <v>99</v>
       </c>
       <c r="B390" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C390" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D390" t="s">
         <v>9</v>
@@ -8975,10 +8978,10 @@
         <v>310</v>
       </c>
       <c r="B391" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C391" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D391" t="s">
         <v>9</v>
@@ -9000,13 +9003,13 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B393" t="s">
         <v>111</v>
       </c>
       <c r="C393" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
@@ -9031,10 +9034,10 @@
         <v>12</v>
       </c>
       <c r="B395" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C395" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D395" t="s">
         <v>9</v>
@@ -9059,7 +9062,7 @@
         <v>315</v>
       </c>
       <c r="B397" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C397" t="s">
         <v>6</v>
@@ -9101,10 +9104,10 @@
         <v>318</v>
       </c>
       <c r="B400" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C400" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D400" t="s">
         <v>7</v>
@@ -9115,10 +9118,10 @@
         <v>319</v>
       </c>
       <c r="B401" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C401" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
         <v>7</v>
@@ -9132,7 +9135,7 @@
         <v>271</v>
       </c>
       <c r="C402" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D402" t="s">
         <v>7</v>
@@ -9140,13 +9143,13 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B403" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C403" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D403" t="s">
         <v>9</v>
@@ -9160,7 +9163,7 @@
         <v>271</v>
       </c>
       <c r="C404" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D404" t="s">
         <v>7</v>
@@ -9182,13 +9185,13 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B406" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C406" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D406" t="s">
         <v>7</v>
@@ -9202,7 +9205,7 @@
         <v>271</v>
       </c>
       <c r="C407" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D407" t="s">
         <v>7</v>
@@ -9216,7 +9219,7 @@
         <v>271</v>
       </c>
       <c r="C408" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D408" t="s">
         <v>7</v>
@@ -9230,7 +9233,7 @@
         <v>271</v>
       </c>
       <c r="C409" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
@@ -9238,13 +9241,13 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B410" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C410" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D410" t="s">
         <v>9</v>
@@ -9252,13 +9255,13 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B411" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C411" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D411" t="s">
         <v>7</v>
@@ -9272,7 +9275,7 @@
         <v>271</v>
       </c>
       <c r="C412" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
@@ -9286,7 +9289,7 @@
         <v>271</v>
       </c>
       <c r="C413" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D413" t="s">
         <v>7</v>
@@ -9294,13 +9297,13 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B414" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C414" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D414" t="s">
         <v>9</v>
@@ -9308,13 +9311,13 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B415" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C415" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D415" t="s">
         <v>7</v>
@@ -9328,7 +9331,7 @@
         <v>271</v>
       </c>
       <c r="C416" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D416" t="s">
         <v>7</v>
@@ -9339,10 +9342,10 @@
         <v>74</v>
       </c>
       <c r="B417" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C417" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D417" t="s">
         <v>9</v>
@@ -9356,7 +9359,7 @@
         <v>271</v>
       </c>
       <c r="C418" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D418" t="s">
         <v>7</v>
@@ -9367,10 +9370,10 @@
         <v>330</v>
       </c>
       <c r="B419" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C419" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D419" t="s">
         <v>9</v>
@@ -9395,10 +9398,10 @@
         <v>12</v>
       </c>
       <c r="B421" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C421" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D421" t="s">
         <v>9</v>
@@ -9409,10 +9412,10 @@
         <v>74</v>
       </c>
       <c r="B422" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C422" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D422" t="s">
         <v>7</v>
@@ -9423,7 +9426,7 @@
         <v>331</v>
       </c>
       <c r="B423" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C423" t="s">
         <v>6</v>
@@ -9437,10 +9440,10 @@
         <v>332</v>
       </c>
       <c r="B424" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C424" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D424" t="s">
         <v>9</v>
@@ -9462,13 +9465,13 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B426" t="s">
         <v>111</v>
       </c>
       <c r="C426" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
@@ -9482,7 +9485,7 @@
         <v>111</v>
       </c>
       <c r="C427" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D427" t="s">
         <v>7</v>
@@ -9496,7 +9499,7 @@
         <v>58</v>
       </c>
       <c r="C428" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D428" t="s">
         <v>7</v>
@@ -9510,7 +9513,7 @@
         <v>58</v>
       </c>
       <c r="C429" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D429" t="s">
         <v>7</v>
@@ -9524,7 +9527,7 @@
         <v>271</v>
       </c>
       <c r="C430" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D430" t="s">
         <v>7</v>
@@ -9538,7 +9541,7 @@
         <v>271</v>
       </c>
       <c r="C431" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D431" t="s">
         <v>7</v>
@@ -9552,7 +9555,7 @@
         <v>271</v>
       </c>
       <c r="C432" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D432" t="s">
         <v>7</v>
@@ -9566,7 +9569,7 @@
         <v>271</v>
       </c>
       <c r="C433" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
@@ -9580,7 +9583,7 @@
         <v>271</v>
       </c>
       <c r="C434" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D434" t="s">
         <v>7</v>
@@ -9602,13 +9605,13 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B436" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C436" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D436" t="s">
         <v>9</v>
@@ -9622,7 +9625,7 @@
         <v>58</v>
       </c>
       <c r="C437" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D437" t="s">
         <v>7</v>
@@ -9633,10 +9636,10 @@
         <v>74</v>
       </c>
       <c r="B438" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C438" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D438" t="s">
         <v>9</v>
@@ -9650,7 +9653,7 @@
         <v>58</v>
       </c>
       <c r="C439" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D439" t="s">
         <v>7</v>
@@ -9664,7 +9667,7 @@
         <v>58</v>
       </c>
       <c r="C440" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D440" t="s">
         <v>7</v>
@@ -9675,10 +9678,10 @@
         <v>74</v>
       </c>
       <c r="B441" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C441" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D441" t="s">
         <v>9</v>
@@ -9689,10 +9692,10 @@
         <v>74</v>
       </c>
       <c r="B442" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C442" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D442" t="s">
         <v>7</v>
@@ -9731,10 +9734,10 @@
         <v>346</v>
       </c>
       <c r="B445" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C445" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D445" t="s">
         <v>9</v>
@@ -9748,7 +9751,7 @@
         <v>58</v>
       </c>
       <c r="C446" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D446" t="s">
         <v>7</v>
@@ -9801,10 +9804,10 @@
         <v>16</v>
       </c>
       <c r="B450" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C450" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D450" t="s">
         <v>7</v>
@@ -9818,7 +9821,7 @@
         <v>67</v>
       </c>
       <c r="C451" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D451" t="s">
         <v>7</v>
@@ -9846,7 +9849,7 @@
         <v>67</v>
       </c>
       <c r="C453" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D453" t="s">
         <v>7</v>
@@ -9860,7 +9863,7 @@
         <v>15</v>
       </c>
       <c r="C454" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D454" t="s">
         <v>9</v>
@@ -9888,7 +9891,7 @@
         <v>51</v>
       </c>
       <c r="C456" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D456" t="s">
         <v>9</v>
@@ -9916,7 +9919,7 @@
         <v>51</v>
       </c>
       <c r="C458" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D458" t="s">
         <v>9</v>
@@ -9924,13 +9927,13 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B459" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C459" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D459" t="s">
         <v>7</v>
@@ -9944,7 +9947,7 @@
         <v>67</v>
       </c>
       <c r="C460" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D460" t="s">
         <v>7</v>
@@ -9969,10 +9972,10 @@
         <v>16</v>
       </c>
       <c r="B462" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C462" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D462" t="s">
         <v>7</v>
@@ -9986,7 +9989,7 @@
         <v>67</v>
       </c>
       <c r="C463" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D463" t="s">
         <v>7</v>
@@ -10014,7 +10017,7 @@
         <v>67</v>
       </c>
       <c r="C465" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D465" t="s">
         <v>7</v>
@@ -10039,7 +10042,7 @@
         <v>365</v>
       </c>
       <c r="B467" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C467" t="s">
         <v>6</v>
@@ -10056,7 +10059,7 @@
         <v>67</v>
       </c>
       <c r="C468" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D468" t="s">
         <v>7</v>
@@ -10084,7 +10087,7 @@
         <v>67</v>
       </c>
       <c r="C470" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D470" t="s">
         <v>7</v>
@@ -10109,10 +10112,10 @@
         <v>16</v>
       </c>
       <c r="B472" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C472" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D472" t="s">
         <v>7</v>
@@ -10140,7 +10143,7 @@
         <v>51</v>
       </c>
       <c r="C474" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D474" t="s">
         <v>9</v>
@@ -10168,7 +10171,7 @@
         <v>51</v>
       </c>
       <c r="C476" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D476" t="s">
         <v>9</v>
@@ -10179,10 +10182,10 @@
         <v>16</v>
       </c>
       <c r="B477" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C477" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D477" t="s">
         <v>7</v>
@@ -10210,7 +10213,7 @@
         <v>51</v>
       </c>
       <c r="C479" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D479" t="s">
         <v>9</v>
@@ -10238,7 +10241,7 @@
         <v>51</v>
       </c>
       <c r="C481" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D481" t="s">
         <v>9</v>
@@ -10274,13 +10277,13 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B484" t="s">
         <v>17</v>
       </c>
       <c r="C484" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D484" t="s">
         <v>7</v>
@@ -10302,13 +10305,13 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B486" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C486" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D486" t="s">
         <v>7</v>
@@ -10322,7 +10325,7 @@
         <v>67</v>
       </c>
       <c r="C487" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
@@ -10336,7 +10339,7 @@
         <v>15</v>
       </c>
       <c r="C488" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D488" t="s">
         <v>9</v>
@@ -10350,7 +10353,7 @@
         <v>67</v>
       </c>
       <c r="C489" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
@@ -10364,7 +10367,7 @@
         <v>15</v>
       </c>
       <c r="C490" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D490" t="s">
         <v>9</v>
@@ -10400,13 +10403,13 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B493" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C493" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
@@ -10420,7 +10423,7 @@
         <v>67</v>
       </c>
       <c r="C494" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
@@ -10434,7 +10437,7 @@
         <v>15</v>
       </c>
       <c r="C495" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D495" t="s">
         <v>9</v>
@@ -10515,10 +10518,10 @@
         <v>372</v>
       </c>
       <c r="B501" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C501" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D501" t="s">
         <v>9</v>
@@ -10543,7 +10546,7 @@
         <v>390</v>
       </c>
       <c r="B503" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C503" t="s">
         <v>6</v>
@@ -10554,13 +10557,13 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B504" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C504" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D504" t="s">
         <v>7</v>
@@ -10585,7 +10588,7 @@
         <v>392</v>
       </c>
       <c r="B506" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C506" t="s">
         <v>6</v>
@@ -10596,13 +10599,13 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B507" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C507" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D507" t="s">
         <v>7</v>
@@ -10627,10 +10630,10 @@
         <v>394</v>
       </c>
       <c r="B509" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C509" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D509" t="s">
         <v>9</v>
@@ -10641,10 +10644,10 @@
         <v>395</v>
       </c>
       <c r="B510" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C510" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D510" t="s">
         <v>9</v>
@@ -10683,10 +10686,10 @@
         <v>16</v>
       </c>
       <c r="B513" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C513" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D513" t="s">
         <v>7</v>
@@ -10711,10 +10714,10 @@
         <v>400</v>
       </c>
       <c r="B515" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C515" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D515" t="s">
         <v>7</v>
@@ -10739,7 +10742,7 @@
         <v>402</v>
       </c>
       <c r="B517" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C517" t="s">
         <v>6</v>
@@ -10756,7 +10759,7 @@
         <v>17</v>
       </c>
       <c r="C518" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D518" t="s">
         <v>7</v>
@@ -10767,7 +10770,7 @@
         <v>403</v>
       </c>
       <c r="B519" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C519" t="s">
         <v>6</v>
@@ -10778,13 +10781,13 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B520" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C520" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D520" t="s">
         <v>7</v>
@@ -10798,7 +10801,7 @@
         <v>67</v>
       </c>
       <c r="C521" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D521" t="s">
         <v>7</v>
@@ -10840,7 +10843,7 @@
         <v>67</v>
       </c>
       <c r="C524" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D524" t="s">
         <v>7</v>
@@ -10868,7 +10871,7 @@
         <v>67</v>
       </c>
       <c r="C526" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D526" t="s">
         <v>7</v>
@@ -10896,7 +10899,7 @@
         <v>67</v>
       </c>
       <c r="C528" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D528" t="s">
         <v>7</v>
@@ -10924,7 +10927,7 @@
         <v>67</v>
       </c>
       <c r="C530" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D530" t="s">
         <v>7</v>
@@ -10977,10 +10980,10 @@
         <v>16</v>
       </c>
       <c r="B534" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C534" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D534" t="s">
         <v>7</v>
@@ -10994,7 +10997,7 @@
         <v>67</v>
       </c>
       <c r="C535" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D535" t="s">
         <v>7</v>
@@ -11022,7 +11025,7 @@
         <v>17</v>
       </c>
       <c r="C537" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D537" t="s">
         <v>7</v>
@@ -11047,10 +11050,10 @@
         <v>418</v>
       </c>
       <c r="B539" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C539" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D539" t="s">
         <v>7</v>
@@ -11064,7 +11067,7 @@
         <v>111</v>
       </c>
       <c r="C540" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D540" t="s">
         <v>7</v>
@@ -11106,7 +11109,7 @@
         <v>15</v>
       </c>
       <c r="C543" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D543" t="s">
         <v>9</v>
@@ -11162,7 +11165,7 @@
         <v>17</v>
       </c>
       <c r="C547" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D547" t="s">
         <v>7</v>
@@ -11190,7 +11193,7 @@
         <v>17</v>
       </c>
       <c r="C549" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D549" t="s">
         <v>7</v>
@@ -11215,10 +11218,10 @@
         <v>426</v>
       </c>
       <c r="B551" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C551" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D551" t="s">
         <v>7</v>
@@ -11243,10 +11246,10 @@
         <v>12</v>
       </c>
       <c r="B553" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C553" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D553" t="s">
         <v>9</v>
@@ -11260,7 +11263,7 @@
         <v>67</v>
       </c>
       <c r="C554" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D554" t="s">
         <v>7</v>
@@ -11274,7 +11277,7 @@
         <v>15</v>
       </c>
       <c r="C555" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D555" t="s">
         <v>9</v>
@@ -11302,7 +11305,7 @@
         <v>15</v>
       </c>
       <c r="C557" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D557" t="s">
         <v>9</v>
@@ -11324,13 +11327,13 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B559" t="s">
         <v>17</v>
       </c>
       <c r="C559" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D559" t="s">
         <v>7</v>
@@ -11352,13 +11355,13 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B561" t="s">
         <v>17</v>
       </c>
       <c r="C561" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D561" t="s">
         <v>7</v>
@@ -11397,7 +11400,7 @@
         <v>436</v>
       </c>
       <c r="B564" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C564" t="s">
         <v>6</v>
@@ -11428,7 +11431,7 @@
         <v>51</v>
       </c>
       <c r="C566" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D566" t="s">
         <v>9</v>
@@ -11470,7 +11473,7 @@
         <v>51</v>
       </c>
       <c r="C569" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D569" t="s">
         <v>9</v>
@@ -11498,7 +11501,7 @@
         <v>51</v>
       </c>
       <c r="C571" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D571" t="s">
         <v>9</v>
@@ -11512,7 +11515,7 @@
         <v>17</v>
       </c>
       <c r="C572" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D572" t="s">
         <v>7</v>
@@ -11526,7 +11529,7 @@
         <v>51</v>
       </c>
       <c r="C573" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D573" t="s">
         <v>9</v>
@@ -11554,7 +11557,7 @@
         <v>67</v>
       </c>
       <c r="C575" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D575" t="s">
         <v>7</v>
@@ -11568,7 +11571,7 @@
         <v>67</v>
       </c>
       <c r="C576" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D576" t="s">
         <v>7</v>
@@ -11607,10 +11610,10 @@
         <v>16</v>
       </c>
       <c r="B579" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C579" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D579" t="s">
         <v>7</v>
@@ -11666,7 +11669,7 @@
         <v>111</v>
       </c>
       <c r="C583" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D583" t="s">
         <v>7</v>
@@ -11680,7 +11683,7 @@
         <v>58</v>
       </c>
       <c r="C584" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D584" t="s">
         <v>7</v>
@@ -11702,13 +11705,13 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B586" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C586" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D586" t="s">
         <v>9</v>
@@ -11747,7 +11750,7 @@
         <v>12</v>
       </c>
       <c r="B589" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C589" t="s">
         <v>6</v>
@@ -11764,7 +11767,7 @@
         <v>58</v>
       </c>
       <c r="C590" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D590" t="s">
         <v>7</v>
@@ -11775,7 +11778,7 @@
         <v>462</v>
       </c>
       <c r="B591" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C591" t="s">
         <v>6</v>
@@ -11792,7 +11795,7 @@
         <v>67</v>
       </c>
       <c r="C592" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D592" t="s">
         <v>7</v>
@@ -11806,7 +11809,7 @@
         <v>15</v>
       </c>
       <c r="C593" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D593" t="s">
         <v>9</v>
@@ -11820,7 +11823,7 @@
         <v>67</v>
       </c>
       <c r="C594" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D594" t="s">
         <v>7</v>
@@ -11834,7 +11837,7 @@
         <v>15</v>
       </c>
       <c r="C595" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D595" t="s">
         <v>9</v>
@@ -11848,7 +11851,7 @@
         <v>58</v>
       </c>
       <c r="C596" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D596" t="s">
         <v>7</v>
@@ -11859,10 +11862,10 @@
         <v>372</v>
       </c>
       <c r="B597" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C597" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D597" t="s">
         <v>9</v>
@@ -11876,7 +11879,7 @@
         <v>58</v>
       </c>
       <c r="C598" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D598" t="s">
         <v>7</v>
@@ -11904,7 +11907,7 @@
         <v>51</v>
       </c>
       <c r="C600" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D600" t="s">
         <v>9</v>
@@ -11912,13 +11915,13 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B601" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C601" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D601" t="s">
         <v>7</v>
@@ -11946,7 +11949,7 @@
         <v>51</v>
       </c>
       <c r="C603" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D603" t="s">
         <v>9</v>
@@ -11957,10 +11960,10 @@
         <v>16</v>
       </c>
       <c r="B604" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C604" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D604" t="s">
         <v>7</v>
@@ -11985,10 +11988,10 @@
         <v>16</v>
       </c>
       <c r="B606" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C606" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D606" t="s">
         <v>9</v>
@@ -12013,10 +12016,10 @@
         <v>16</v>
       </c>
       <c r="B608" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C608" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D608" t="s">
         <v>9</v>
@@ -12030,7 +12033,7 @@
         <v>67</v>
       </c>
       <c r="C609" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D609" t="s">
         <v>7</v>
@@ -12052,13 +12055,13 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B611" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C611" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D611" t="s">
         <v>7</v>
@@ -12072,7 +12075,7 @@
         <v>58</v>
       </c>
       <c r="C612" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D612" t="s">
         <v>7</v>
@@ -12086,7 +12089,7 @@
         <v>58</v>
       </c>
       <c r="C613" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D613" t="s">
         <v>7</v>
@@ -12100,7 +12103,7 @@
         <v>58</v>
       </c>
       <c r="C614" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D614" t="s">
         <v>7</v>
@@ -12114,7 +12117,7 @@
         <v>67</v>
       </c>
       <c r="C615" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D615" t="s">
         <v>7</v>
@@ -12128,7 +12131,7 @@
         <v>67</v>
       </c>
       <c r="C616" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D616" t="s">
         <v>7</v>
@@ -12181,10 +12184,10 @@
         <v>16</v>
       </c>
       <c r="B620" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C620" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D620" t="s">
         <v>7</v>
@@ -12195,10 +12198,10 @@
         <v>484</v>
       </c>
       <c r="B621" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C621" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D621" t="s">
         <v>9</v>
@@ -12212,7 +12215,7 @@
         <v>58</v>
       </c>
       <c r="C622" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D622" t="s">
         <v>7</v>
@@ -12226,7 +12229,7 @@
         <v>58</v>
       </c>
       <c r="C623" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D623" t="s">
         <v>7</v>
@@ -12240,7 +12243,7 @@
         <v>58</v>
       </c>
       <c r="C624" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D624" t="s">
         <v>7</v>
@@ -12290,13 +12293,13 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B628" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C628" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D628" t="s">
         <v>9</v>
@@ -12321,7 +12324,7 @@
         <v>182</v>
       </c>
       <c r="B630" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C630" t="s">
         <v>6</v>
@@ -12349,7 +12352,7 @@
         <v>493</v>
       </c>
       <c r="B632" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C632" t="s">
         <v>6</v>
@@ -12360,13 +12363,13 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B633" t="s">
         <v>17</v>
       </c>
       <c r="C633" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D633" t="s">
         <v>7</v>
@@ -12377,7 +12380,7 @@
         <v>494</v>
       </c>
       <c r="B634" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C634" t="s">
         <v>6</v>
@@ -12394,7 +12397,7 @@
         <v>17</v>
       </c>
       <c r="C635" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D635" t="s">
         <v>7</v>
@@ -12416,13 +12419,13 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B637" t="s">
         <v>17</v>
       </c>
       <c r="C637" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D637" t="s">
         <v>7</v>
@@ -12433,7 +12436,7 @@
         <v>496</v>
       </c>
       <c r="B638" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C638" t="s">
         <v>6</v>
@@ -12444,13 +12447,13 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B639" t="s">
         <v>111</v>
       </c>
       <c r="C639" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D639" t="s">
         <v>7</v>
@@ -12464,7 +12467,7 @@
         <v>58</v>
       </c>
       <c r="C640" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D640" t="s">
         <v>7</v>
@@ -12478,7 +12481,7 @@
         <v>58</v>
       </c>
       <c r="C641" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D641" t="s">
         <v>7</v>
@@ -12492,7 +12495,7 @@
         <v>58</v>
       </c>
       <c r="C642" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D642" t="s">
         <v>7</v>
@@ -12506,7 +12509,7 @@
         <v>58</v>
       </c>
       <c r="C643" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D643" t="s">
         <v>7</v>
@@ -12517,10 +12520,10 @@
         <v>372</v>
       </c>
       <c r="B644" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C644" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D644" t="s">
         <v>9</v>
@@ -12534,7 +12537,7 @@
         <v>58</v>
       </c>
       <c r="C645" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D645" t="s">
         <v>7</v>
@@ -12587,10 +12590,10 @@
         <v>12</v>
       </c>
       <c r="B649" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C649" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D649" t="s">
         <v>9</v>
@@ -12632,7 +12635,7 @@
         <v>508</v>
       </c>
       <c r="C652" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D652" t="s">
         <v>7</v>
@@ -12646,7 +12649,7 @@
         <v>508</v>
       </c>
       <c r="C653" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D653" t="s">
         <v>7</v>
@@ -12660,7 +12663,7 @@
         <v>508</v>
       </c>
       <c r="C654" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D654" t="s">
         <v>7</v>
@@ -12674,7 +12677,7 @@
         <v>508</v>
       </c>
       <c r="C655" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -12688,7 +12691,7 @@
         <v>111</v>
       </c>
       <c r="C656" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D656" t="s">
         <v>7</v>
@@ -12713,7 +12716,7 @@
         <v>514</v>
       </c>
       <c r="B658" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C658" t="s">
         <v>6</v>
@@ -12730,7 +12733,7 @@
         <v>508</v>
       </c>
       <c r="C659" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -12744,7 +12747,7 @@
         <v>508</v>
       </c>
       <c r="C660" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -12769,10 +12772,10 @@
         <v>518</v>
       </c>
       <c r="B662" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C662" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D662" t="s">
         <v>9</v>
@@ -12800,7 +12803,7 @@
         <v>508</v>
       </c>
       <c r="C664" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -12814,7 +12817,7 @@
         <v>508</v>
       </c>
       <c r="C665" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D665" t="s">
         <v>7</v>
@@ -12828,7 +12831,7 @@
         <v>508</v>
       </c>
       <c r="C666" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D666" t="s">
         <v>7</v>
@@ -12881,10 +12884,10 @@
         <v>526</v>
       </c>
       <c r="B670" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C670" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D670" t="s">
         <v>9</v>
@@ -12895,10 +12898,10 @@
         <v>527</v>
       </c>
       <c r="B671" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C671" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D671" t="s">
         <v>7</v>
@@ -12909,10 +12912,10 @@
         <v>528</v>
       </c>
       <c r="B672" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C672" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D672" t="s">
         <v>7</v>
@@ -12923,10 +12926,10 @@
         <v>529</v>
       </c>
       <c r="B673" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C673" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D673" t="s">
         <v>7</v>
@@ -12937,10 +12940,10 @@
         <v>530</v>
       </c>
       <c r="B674" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C674" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D674" t="s">
         <v>7</v>
@@ -12951,10 +12954,10 @@
         <v>526</v>
       </c>
       <c r="B675" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C675" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D675" t="s">
         <v>9</v>
@@ -12982,7 +12985,7 @@
         <v>235</v>
       </c>
       <c r="C677" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D677" t="s">
         <v>7</v>
@@ -12996,7 +12999,7 @@
         <v>271</v>
       </c>
       <c r="C678" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D678" t="s">
         <v>7</v>
@@ -13024,7 +13027,7 @@
         <v>235</v>
       </c>
       <c r="C680" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D680" t="s">
         <v>7</v>
@@ -13035,7 +13038,7 @@
         <v>536</v>
       </c>
       <c r="B681" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C681" t="s">
         <v>6</v>
@@ -13052,7 +13055,7 @@
         <v>235</v>
       </c>
       <c r="C682" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D682" t="s">
         <v>7</v>
@@ -13077,7 +13080,7 @@
         <v>539</v>
       </c>
       <c r="B684" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C684" t="s">
         <v>6</v>
@@ -13091,10 +13094,10 @@
         <v>540</v>
       </c>
       <c r="B685" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C685" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D685" t="s">
         <v>9</v>
@@ -13108,7 +13111,7 @@
         <v>508</v>
       </c>
       <c r="C686" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D686" t="s">
         <v>7</v>
@@ -13116,13 +13119,13 @@
     </row>
     <row r="687" spans="1:4">
       <c r="A687" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B687" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C687" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D687" t="s">
         <v>9</v>
@@ -13133,10 +13136,10 @@
         <v>542</v>
       </c>
       <c r="B688" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C688" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D688" t="s">
         <v>7</v>
@@ -13161,10 +13164,10 @@
         <v>544</v>
       </c>
       <c r="B690" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C690" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D690" t="s">
         <v>7</v>
@@ -13189,10 +13192,10 @@
         <v>546</v>
       </c>
       <c r="B692" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C692" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D692" t="s">
         <v>7</v>
@@ -13203,10 +13206,10 @@
         <v>547</v>
       </c>
       <c r="B693" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C693" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D693" t="s">
         <v>9</v>
@@ -13217,10 +13220,10 @@
         <v>548</v>
       </c>
       <c r="B694" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C694" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D694" t="s">
         <v>7</v>
@@ -13231,10 +13234,10 @@
         <v>549</v>
       </c>
       <c r="B695" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C695" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D695" t="s">
         <v>7</v>
@@ -13245,10 +13248,10 @@
         <v>550</v>
       </c>
       <c r="B696" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C696" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D696" t="s">
         <v>7</v>
@@ -13259,10 +13262,10 @@
         <v>551</v>
       </c>
       <c r="B697" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C697" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D697" t="s">
         <v>7</v>
@@ -13273,10 +13276,10 @@
         <v>372</v>
       </c>
       <c r="B698" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C698" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D698" t="s">
         <v>9</v>
@@ -13287,10 +13290,10 @@
         <v>552</v>
       </c>
       <c r="B699" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C699" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D699" t="s">
         <v>7</v>
@@ -13301,10 +13304,10 @@
         <v>553</v>
       </c>
       <c r="B700" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C700" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D700" t="s">
         <v>7</v>
@@ -13318,7 +13321,7 @@
         <v>271</v>
       </c>
       <c r="C701" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D701" t="s">
         <v>7</v>
@@ -13332,7 +13335,7 @@
         <v>271</v>
       </c>
       <c r="C702" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D702" t="s">
         <v>7</v>
@@ -13343,10 +13346,10 @@
         <v>372</v>
       </c>
       <c r="B703" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C703" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D703" t="s">
         <v>9</v>
@@ -13371,10 +13374,10 @@
         <v>556</v>
       </c>
       <c r="B705" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C705" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D705" t="s">
         <v>9</v>
@@ -13388,7 +13391,7 @@
         <v>51</v>
       </c>
       <c r="C706" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D706" t="s">
         <v>9</v>
@@ -13416,7 +13419,7 @@
         <v>508</v>
       </c>
       <c r="C708" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D708" t="s">
         <v>7</v>
@@ -13424,13 +13427,13 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B709" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C709" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D709" t="s">
         <v>9</v>
@@ -13444,7 +13447,7 @@
         <v>271</v>
       </c>
       <c r="C710" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D710" t="s">
         <v>7</v>
@@ -13472,7 +13475,7 @@
         <v>271</v>
       </c>
       <c r="C712" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D712" t="s">
         <v>7</v>
@@ -13486,7 +13489,7 @@
         <v>271</v>
       </c>
       <c r="C713" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D713" t="s">
         <v>7</v>
@@ -13500,7 +13503,7 @@
         <v>271</v>
       </c>
       <c r="C714" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D714" t="s">
         <v>7</v>
@@ -13508,13 +13511,13 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B715" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C715" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D715" t="s">
         <v>9</v>
@@ -13528,7 +13531,7 @@
         <v>271</v>
       </c>
       <c r="C716" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D716" t="s">
         <v>7</v>
@@ -13542,7 +13545,7 @@
         <v>271</v>
       </c>
       <c r="C717" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D717" t="s">
         <v>7</v>
@@ -13553,10 +13556,10 @@
         <v>567</v>
       </c>
       <c r="B718" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C718" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D718" t="s">
         <v>7</v>
@@ -13570,7 +13573,7 @@
         <v>111</v>
       </c>
       <c r="C719" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D719" t="s">
         <v>7</v>
@@ -13584,7 +13587,7 @@
         <v>271</v>
       </c>
       <c r="C720" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D720" t="s">
         <v>7</v>
@@ -13690,13 +13693,13 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B728" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C728" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D728" t="s">
         <v>7</v>
@@ -13710,7 +13713,7 @@
         <v>58</v>
       </c>
       <c r="C729" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D729" t="s">
         <v>7</v>
@@ -13735,10 +13738,10 @@
         <v>576</v>
       </c>
       <c r="B731" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C731" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D731" t="s">
         <v>7</v>
@@ -13749,10 +13752,10 @@
         <v>74</v>
       </c>
       <c r="B732" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C732" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D732" t="s">
         <v>9</v>
@@ -13766,7 +13769,7 @@
         <v>67</v>
       </c>
       <c r="C733" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D733" t="s">
         <v>7</v>
@@ -13794,7 +13797,7 @@
         <v>67</v>
       </c>
       <c r="C735" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D735" t="s">
         <v>7</v>
@@ -13822,7 +13825,7 @@
         <v>67</v>
       </c>
       <c r="C737" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D737" t="s">
         <v>7</v>
@@ -13875,10 +13878,10 @@
         <v>584</v>
       </c>
       <c r="B741" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C741" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D741" t="s">
         <v>9</v>
@@ -13889,10 +13892,10 @@
         <v>585</v>
       </c>
       <c r="B742" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C742" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D742" t="s">
         <v>9</v>
@@ -13903,10 +13906,10 @@
         <v>586</v>
       </c>
       <c r="B743" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C743" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D743" t="s">
         <v>9</v>
@@ -13917,10 +13920,10 @@
         <v>587</v>
       </c>
       <c r="B744" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C744" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D744" t="s">
         <v>9</v>
@@ -13948,7 +13951,7 @@
         <v>67</v>
       </c>
       <c r="C746" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D746" t="s">
         <v>7</v>
@@ -14004,7 +14007,7 @@
         <v>51</v>
       </c>
       <c r="C750" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D750" t="s">
         <v>9</v>
@@ -14018,7 +14021,7 @@
         <v>51</v>
       </c>
       <c r="C751" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D751" t="s">
         <v>9</v>
@@ -14032,7 +14035,7 @@
         <v>51</v>
       </c>
       <c r="C752" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D752" t="s">
         <v>9</v>
@@ -14040,13 +14043,13 @@
     </row>
     <row r="753" spans="1:4">
       <c r="A753" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B753" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C753" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D753" t="s">
         <v>7</v>
@@ -14071,7 +14074,7 @@
         <v>596</v>
       </c>
       <c r="B755" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C755" t="s">
         <v>6</v>
@@ -14085,7 +14088,7 @@
         <v>597</v>
       </c>
       <c r="B756" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C756" t="s">
         <v>6</v>
@@ -14096,13 +14099,13 @@
     </row>
     <row r="757" spans="1:4">
       <c r="A757" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B757" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C757" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D757" t="s">
         <v>7</v>
@@ -14183,10 +14186,10 @@
         <v>602</v>
       </c>
       <c r="B763" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C763" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D763" t="s">
         <v>9</v>
@@ -14197,10 +14200,10 @@
         <v>603</v>
       </c>
       <c r="B764" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C764" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D764" t="s">
         <v>9</v>
@@ -14242,7 +14245,7 @@
         <v>51</v>
       </c>
       <c r="C767" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D767" t="s">
         <v>9</v>
@@ -14270,7 +14273,7 @@
         <v>51</v>
       </c>
       <c r="C769" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D769" t="s">
         <v>9</v>
@@ -14281,10 +14284,10 @@
         <v>608</v>
       </c>
       <c r="B770" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C770" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D770" t="s">
         <v>9</v>
@@ -14354,7 +14357,7 @@
         <v>67</v>
       </c>
       <c r="C775" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D775" t="s">
         <v>7</v>
@@ -14494,7 +14497,7 @@
         <v>67</v>
       </c>
       <c r="C785" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D785" t="s">
         <v>7</v>
@@ -14564,7 +14567,7 @@
         <v>67</v>
       </c>
       <c r="C790" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D790" t="s">
         <v>7</v>
@@ -14606,7 +14609,7 @@
         <v>67</v>
       </c>
       <c r="C793" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D793" t="s">
         <v>7</v>
@@ -14634,7 +14637,7 @@
         <v>15</v>
       </c>
       <c r="C795" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D795" t="s">
         <v>9</v>
@@ -14690,7 +14693,7 @@
         <v>58</v>
       </c>
       <c r="C799" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D799" t="s">
         <v>7</v>
@@ -14718,7 +14721,7 @@
         <v>67</v>
       </c>
       <c r="C801" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D801" t="s">
         <v>7</v>
@@ -14732,7 +14735,7 @@
         <v>67</v>
       </c>
       <c r="C802" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D802" t="s">
         <v>7</v>
@@ -14788,7 +14791,7 @@
         <v>51</v>
       </c>
       <c r="C806" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D806" t="s">
         <v>9</v>
@@ -14830,7 +14833,7 @@
         <v>51</v>
       </c>
       <c r="C809" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D809" t="s">
         <v>9</v>
@@ -14844,7 +14847,7 @@
         <v>67</v>
       </c>
       <c r="C810" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D810" t="s">
         <v>7</v>
@@ -14872,7 +14875,7 @@
         <v>67</v>
       </c>
       <c r="C812" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D812" t="s">
         <v>9</v>
@@ -14900,7 +14903,7 @@
         <v>67</v>
       </c>
       <c r="C814" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D814" t="s">
         <v>7</v>
@@ -14956,7 +14959,7 @@
         <v>67</v>
       </c>
       <c r="C818" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D818" t="s">
         <v>7</v>
@@ -14984,7 +14987,7 @@
         <v>67</v>
       </c>
       <c r="C820" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D820" t="s">
         <v>7</v>
@@ -15012,7 +15015,7 @@
         <v>67</v>
       </c>
       <c r="C822" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D822" t="s">
         <v>7</v>
@@ -15026,7 +15029,7 @@
         <v>111</v>
       </c>
       <c r="C823" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D823" t="s">
         <v>9</v>
@@ -15068,7 +15071,7 @@
         <v>67</v>
       </c>
       <c r="C826" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D826" t="s">
         <v>7</v>
@@ -15250,7 +15253,7 @@
         <v>111</v>
       </c>
       <c r="C839" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D839" t="s">
         <v>7</v>
@@ -15264,7 +15267,7 @@
         <v>58</v>
       </c>
       <c r="C840" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D840" t="s">
         <v>7</v>
@@ -15275,10 +15278,10 @@
         <v>674</v>
       </c>
       <c r="B841" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C841" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D841" t="s">
         <v>9</v>
@@ -15334,7 +15337,7 @@
         <v>58</v>
       </c>
       <c r="C845" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D845" t="s">
         <v>7</v>
@@ -15362,7 +15365,7 @@
         <v>58</v>
       </c>
       <c r="C847" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D847" t="s">
         <v>7</v>
@@ -15373,10 +15376,10 @@
         <v>372</v>
       </c>
       <c r="B848" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C848" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D848" t="s">
         <v>9</v>
@@ -15390,7 +15393,7 @@
         <v>58</v>
       </c>
       <c r="C849" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D849" t="s">
         <v>7</v>
@@ -15446,7 +15449,7 @@
         <v>235</v>
       </c>
       <c r="C853" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D853" t="s">
         <v>7</v>
@@ -15544,7 +15547,7 @@
         <v>58</v>
       </c>
       <c r="C860" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D860" t="s">
         <v>7</v>
@@ -15558,7 +15561,7 @@
         <v>58</v>
       </c>
       <c r="C861" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D861" t="s">
         <v>7</v>
@@ -15572,7 +15575,7 @@
         <v>58</v>
       </c>
       <c r="C862" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D862" t="s">
         <v>7</v>
@@ -15600,7 +15603,7 @@
         <v>58</v>
       </c>
       <c r="C864" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D864" t="s">
         <v>7</v>
@@ -15642,7 +15645,7 @@
         <v>111</v>
       </c>
       <c r="C867" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D867" t="s">
         <v>7</v>
@@ -15653,7 +15656,7 @@
         <v>696</v>
       </c>
       <c r="B868" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C868" t="s">
         <v>6</v>
@@ -15681,10 +15684,10 @@
         <v>698</v>
       </c>
       <c r="B870" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C870" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D870" t="s">
         <v>7</v>
@@ -15695,10 +15698,10 @@
         <v>699</v>
       </c>
       <c r="B871" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C871" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D871" t="s">
         <v>7</v>
@@ -15709,10 +15712,10 @@
         <v>700</v>
       </c>
       <c r="B872" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C872" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D872" t="s">
         <v>7</v>
@@ -15723,10 +15726,10 @@
         <v>701</v>
       </c>
       <c r="B873" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C873" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D873" t="s">
         <v>7</v>
@@ -15737,10 +15740,10 @@
         <v>702</v>
       </c>
       <c r="B874" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C874" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D874" t="s">
         <v>7</v>
@@ -15751,10 +15754,10 @@
         <v>703</v>
       </c>
       <c r="B875" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C875" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D875" t="s">
         <v>9</v>
@@ -15768,7 +15771,7 @@
         <v>235</v>
       </c>
       <c r="C876" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D876" t="s">
         <v>7</v>
@@ -15779,10 +15782,10 @@
         <v>705</v>
       </c>
       <c r="B877" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C877" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D877" t="s">
         <v>9</v>
@@ -15821,10 +15824,10 @@
         <v>708</v>
       </c>
       <c r="B880" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C880" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D880" t="s">
         <v>7</v>
@@ -15849,7 +15852,7 @@
         <v>710</v>
       </c>
       <c r="B882" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C882" t="s">
         <v>6</v>
@@ -15877,10 +15880,10 @@
         <v>712</v>
       </c>
       <c r="B884" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C884" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D884" t="s">
         <v>7</v>
@@ -15894,7 +15897,7 @@
         <v>271</v>
       </c>
       <c r="C885" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D885" t="s">
         <v>7</v>
@@ -15908,7 +15911,7 @@
         <v>271</v>
       </c>
       <c r="C886" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D886" t="s">
         <v>7</v>
@@ -15922,7 +15925,7 @@
         <v>271</v>
       </c>
       <c r="C887" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D887" t="s">
         <v>7</v>
@@ -15936,7 +15939,7 @@
         <v>271</v>
       </c>
       <c r="C888" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D888" t="s">
         <v>7</v>
@@ -15950,7 +15953,7 @@
         <v>508</v>
       </c>
       <c r="C889" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D889" t="s">
         <v>7</v>
@@ -15964,7 +15967,7 @@
         <v>508</v>
       </c>
       <c r="C890" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D890" t="s">
         <v>7</v>
@@ -15978,7 +15981,7 @@
         <v>508</v>
       </c>
       <c r="C891" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D891" t="s">
         <v>7</v>
@@ -15989,10 +15992,10 @@
         <v>720</v>
       </c>
       <c r="B892" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C892" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D892" t="s">
         <v>9</v>
@@ -16003,7 +16006,7 @@
         <v>721</v>
       </c>
       <c r="B893" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C893" t="s">
         <v>6</v>
@@ -16020,7 +16023,7 @@
         <v>508</v>
       </c>
       <c r="C894" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D894" t="s">
         <v>7</v>
@@ -16034,7 +16037,7 @@
         <v>508</v>
       </c>
       <c r="C895" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D895" t="s">
         <v>7</v>
@@ -16045,7 +16048,7 @@
         <v>724</v>
       </c>
       <c r="B896" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C896" t="s">
         <v>6</v>
@@ -16059,7 +16062,7 @@
         <v>725</v>
       </c>
       <c r="B897" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C897" t="s">
         <v>6</v>
@@ -16073,7 +16076,7 @@
         <v>726</v>
       </c>
       <c r="B898" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C898" t="s">
         <v>6</v>
@@ -16087,10 +16090,10 @@
         <v>727</v>
       </c>
       <c r="B899" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C899" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D899" t="s">
         <v>9</v>
@@ -16101,10 +16104,10 @@
         <v>728</v>
       </c>
       <c r="B900" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C900" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D900" t="s">
         <v>9</v>
@@ -16115,10 +16118,10 @@
         <v>729</v>
       </c>
       <c r="B901" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C901" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D901" t="s">
         <v>9</v>
@@ -16132,7 +16135,7 @@
         <v>508</v>
       </c>
       <c r="C902" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D902" t="s">
         <v>7</v>
@@ -16146,7 +16149,7 @@
         <v>271</v>
       </c>
       <c r="C903" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D903" t="s">
         <v>7</v>
@@ -16160,7 +16163,7 @@
         <v>508</v>
       </c>
       <c r="C904" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D904" t="s">
         <v>7</v>
@@ -16174,7 +16177,7 @@
         <v>58</v>
       </c>
       <c r="C905" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D905" t="s">
         <v>7</v>
@@ -16182,13 +16185,13 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B906" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C906" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D906" t="s">
         <v>9</v>
@@ -16199,10 +16202,10 @@
         <v>734</v>
       </c>
       <c r="B907" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C907" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D907" t="s">
         <v>7</v>
@@ -16230,7 +16233,7 @@
         <v>58</v>
       </c>
       <c r="C909" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D909" t="s">
         <v>7</v>
@@ -16238,13 +16241,13 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B910" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C910" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D910" t="s">
         <v>9</v>
@@ -16258,7 +16261,7 @@
         <v>67</v>
       </c>
       <c r="C911" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D911" t="s">
         <v>7</v>
@@ -16325,10 +16328,10 @@
         <v>741</v>
       </c>
       <c r="B916" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C916" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D916" t="s">
         <v>7</v>
@@ -16339,10 +16342,10 @@
         <v>742</v>
       </c>
       <c r="B917" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C917" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D917" t="s">
         <v>7</v>
@@ -16353,10 +16356,10 @@
         <v>743</v>
       </c>
       <c r="B918" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C918" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D918" t="s">
         <v>7</v>
@@ -16367,10 +16370,10 @@
         <v>744</v>
       </c>
       <c r="B919" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C919" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D919" t="s">
         <v>7</v>
@@ -16381,10 +16384,10 @@
         <v>745</v>
       </c>
       <c r="B920" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C920" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D920" t="s">
         <v>7</v>
@@ -16395,10 +16398,10 @@
         <v>746</v>
       </c>
       <c r="B921" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C921" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D921" t="s">
         <v>7</v>
@@ -16409,10 +16412,10 @@
         <v>747</v>
       </c>
       <c r="B922" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C922" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D922" t="s">
         <v>7</v>
@@ -16448,13 +16451,13 @@
     </row>
     <row r="925" spans="1:4">
       <c r="A925" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B925" t="s">
         <v>111</v>
       </c>
       <c r="C925" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D925" t="s">
         <v>7</v>
@@ -16465,7 +16468,7 @@
         <v>749</v>
       </c>
       <c r="B926" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C926" t="s">
         <v>6</v>
@@ -16510,7 +16513,7 @@
         <v>508</v>
       </c>
       <c r="C929" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D929" t="s">
         <v>7</v>
@@ -16549,7 +16552,7 @@
         <v>12</v>
       </c>
       <c r="B932" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C932" t="s">
         <v>6</v>
@@ -16563,10 +16566,10 @@
         <v>12</v>
       </c>
       <c r="B933" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C933" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D933" t="s">
         <v>9</v>
@@ -16577,10 +16580,10 @@
         <v>753</v>
       </c>
       <c r="B934" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C934" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D934" t="s">
         <v>9</v>
@@ -16608,7 +16611,7 @@
         <v>111</v>
       </c>
       <c r="C936" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D936" t="s">
         <v>7</v>
@@ -16622,7 +16625,7 @@
         <v>58</v>
       </c>
       <c r="C937" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D937" t="s">
         <v>7</v>
@@ -16636,7 +16639,7 @@
         <v>67</v>
       </c>
       <c r="C938" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D938" t="s">
         <v>7</v>
@@ -16664,7 +16667,7 @@
         <v>111</v>
       </c>
       <c r="C940" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D940" t="s">
         <v>7</v>
@@ -16689,7 +16692,7 @@
         <v>759</v>
       </c>
       <c r="B942" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C942" t="s">
         <v>6</v>
@@ -16734,7 +16737,7 @@
         <v>67</v>
       </c>
       <c r="C945" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D945" t="s">
         <v>9</v>
@@ -16787,10 +16790,10 @@
         <v>16</v>
       </c>
       <c r="B949" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C949" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D949" t="s">
         <v>9</v>
@@ -16818,7 +16821,7 @@
         <v>152</v>
       </c>
       <c r="C951" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D951" t="s">
         <v>9</v>
@@ -16843,10 +16846,10 @@
         <v>766</v>
       </c>
       <c r="B953" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C953" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D953" t="s">
         <v>9</v>
@@ -16888,7 +16891,7 @@
         <v>111</v>
       </c>
       <c r="C956" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D956" t="s">
         <v>7</v>
@@ -16913,7 +16916,7 @@
         <v>182</v>
       </c>
       <c r="B958" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C958" t="s">
         <v>6</v>
@@ -16941,10 +16944,10 @@
         <v>773</v>
       </c>
       <c r="B960" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C960" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D960" t="s">
         <v>9</v>
@@ -16952,13 +16955,13 @@
     </row>
     <row r="961" spans="1:4">
       <c r="A961" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B961" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C961" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D961" t="s">
         <v>9</v>
@@ -16972,7 +16975,7 @@
         <v>67</v>
       </c>
       <c r="C962" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D962" t="s">
         <v>7</v>
@@ -17028,7 +17031,7 @@
         <v>67</v>
       </c>
       <c r="C966" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D966" t="s">
         <v>7</v>
@@ -17042,7 +17045,7 @@
         <v>15</v>
       </c>
       <c r="C967" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D967" t="s">
         <v>9</v>
@@ -17056,7 +17059,7 @@
         <v>15</v>
       </c>
       <c r="C968" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D968" t="s">
         <v>9</v>
@@ -17081,10 +17084,10 @@
         <v>12</v>
       </c>
       <c r="B970" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C970" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D970" t="s">
         <v>9</v>
@@ -17095,10 +17098,10 @@
         <v>16</v>
       </c>
       <c r="B971" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C971" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D971" t="s">
         <v>9</v>
@@ -17123,10 +17126,10 @@
         <v>293</v>
       </c>
       <c r="B973" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C973" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D973" t="s">
         <v>9</v>
@@ -17137,10 +17140,10 @@
         <v>12</v>
       </c>
       <c r="B974" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C974" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D974" t="s">
         <v>9</v>
@@ -17154,7 +17157,7 @@
         <v>58</v>
       </c>
       <c r="C975" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D975" t="s">
         <v>7</v>
@@ -17165,10 +17168,10 @@
         <v>781</v>
       </c>
       <c r="B976" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C976" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D976" t="s">
         <v>9</v>
@@ -17182,7 +17185,7 @@
         <v>111</v>
       </c>
       <c r="C977" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D977" t="s">
         <v>7</v>
@@ -17263,10 +17266,10 @@
         <v>786</v>
       </c>
       <c r="B983" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C983" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D983" t="s">
         <v>9</v>
@@ -17277,10 +17280,10 @@
         <v>12</v>
       </c>
       <c r="B984" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C984" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D984" t="s">
         <v>9</v>
@@ -17288,13 +17291,13 @@
     </row>
     <row r="985" spans="1:4">
       <c r="A985" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B985" t="s">
         <v>111</v>
       </c>
       <c r="C985" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D985" t="s">
         <v>7</v>
@@ -17308,7 +17311,7 @@
         <v>111</v>
       </c>
       <c r="C986" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D986" t="s">
         <v>7</v>
@@ -17322,7 +17325,7 @@
         <v>111</v>
       </c>
       <c r="C987" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D987" t="s">
         <v>7</v>
@@ -17375,10 +17378,10 @@
         <v>12</v>
       </c>
       <c r="B991" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C991" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D991" t="s">
         <v>9</v>
@@ -17428,13 +17431,13 @@
     </row>
     <row r="995" spans="1:4">
       <c r="A995" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B995" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C995" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D995" t="s">
         <v>9</v>
@@ -17448,7 +17451,7 @@
         <v>235</v>
       </c>
       <c r="C996" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D996" t="s">
         <v>7</v>
@@ -17459,10 +17462,10 @@
         <v>12</v>
       </c>
       <c r="B997" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C997" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D997" t="s">
         <v>9</v>
@@ -17543,10 +17546,10 @@
         <v>800</v>
       </c>
       <c r="B1003" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1003" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1003" t="s">
         <v>7</v>
@@ -17574,7 +17577,7 @@
         <v>111</v>
       </c>
       <c r="C1005" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1005" t="s">
         <v>7</v>
@@ -17585,10 +17588,10 @@
         <v>803</v>
       </c>
       <c r="B1006" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1006" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1006" t="s">
         <v>9</v>
@@ -17641,10 +17644,10 @@
         <v>12</v>
       </c>
       <c r="B1010" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1010" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1010" t="s">
         <v>9</v>
@@ -17655,10 +17658,10 @@
         <v>806</v>
       </c>
       <c r="B1011" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1011" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1011" t="s">
         <v>9</v>
@@ -17711,10 +17714,10 @@
         <v>809</v>
       </c>
       <c r="B1015" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1015" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1015" t="s">
         <v>9</v>
@@ -17756,7 +17759,7 @@
         <v>51</v>
       </c>
       <c r="C1018" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1018" t="s">
         <v>9</v>
@@ -17770,7 +17773,7 @@
         <v>51</v>
       </c>
       <c r="C1019" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1019" t="s">
         <v>9</v>
@@ -17795,10 +17798,10 @@
         <v>12</v>
       </c>
       <c r="B1021" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1021" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1021" t="s">
         <v>9</v>
@@ -17812,7 +17815,7 @@
         <v>51</v>
       </c>
       <c r="C1022" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1022" t="s">
         <v>9</v>
@@ -17840,7 +17843,7 @@
         <v>51</v>
       </c>
       <c r="C1024" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1024" t="s">
         <v>9</v>
@@ -17910,7 +17913,7 @@
         <v>51</v>
       </c>
       <c r="C1029" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1029" t="s">
         <v>9</v>
@@ -17924,7 +17927,7 @@
         <v>51</v>
       </c>
       <c r="C1030" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1030" t="s">
         <v>9</v>
@@ -17938,7 +17941,7 @@
         <v>51</v>
       </c>
       <c r="C1031" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1031" t="s">
         <v>9</v>
@@ -17952,7 +17955,7 @@
         <v>51</v>
       </c>
       <c r="C1032" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1032" t="s">
         <v>9</v>
@@ -17966,7 +17969,7 @@
         <v>51</v>
       </c>
       <c r="C1033" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1033" t="s">
         <v>9</v>
@@ -17980,7 +17983,7 @@
         <v>51</v>
       </c>
       <c r="C1034" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1034" t="s">
         <v>9</v>
@@ -17994,7 +17997,7 @@
         <v>508</v>
       </c>
       <c r="C1035" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1035" t="s">
         <v>7</v>
@@ -18005,10 +18008,10 @@
         <v>12</v>
       </c>
       <c r="B1036" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1036" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1036" t="s">
         <v>9</v>
@@ -18019,10 +18022,10 @@
         <v>293</v>
       </c>
       <c r="B1037" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1037" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1037" t="s">
         <v>9</v>
@@ -18036,7 +18039,7 @@
         <v>51</v>
       </c>
       <c r="C1038" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1038" t="s">
         <v>9</v>
@@ -18050,7 +18053,7 @@
         <v>51</v>
       </c>
       <c r="C1039" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1039" t="s">
         <v>9</v>
@@ -18064,7 +18067,7 @@
         <v>51</v>
       </c>
       <c r="C1040" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1040" t="s">
         <v>9</v>
@@ -18072,13 +18075,13 @@
     </row>
     <row r="1041" spans="1:4">
       <c r="A1041" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1041" t="s">
         <v>17</v>
       </c>
       <c r="C1041" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1041" t="s">
         <v>7</v>
@@ -18092,7 +18095,7 @@
         <v>51</v>
       </c>
       <c r="C1042" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1042" t="s">
         <v>9</v>
@@ -18106,7 +18109,7 @@
         <v>51</v>
       </c>
       <c r="C1043" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1043" t="s">
         <v>9</v>
@@ -18134,7 +18137,7 @@
         <v>508</v>
       </c>
       <c r="C1045" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1045" t="s">
         <v>7</v>
@@ -18145,7 +18148,7 @@
         <v>140</v>
       </c>
       <c r="B1046" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1046" t="s">
         <v>15</v>
@@ -18159,10 +18162,10 @@
         <v>293</v>
       </c>
       <c r="B1047" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1047" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1047" t="s">
         <v>9</v>
@@ -18176,7 +18179,7 @@
         <v>51</v>
       </c>
       <c r="C1048" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1048" t="s">
         <v>9</v>
@@ -18190,7 +18193,7 @@
         <v>51</v>
       </c>
       <c r="C1049" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1049" t="s">
         <v>9</v>
@@ -18204,7 +18207,7 @@
         <v>51</v>
       </c>
       <c r="C1050" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1050" t="s">
         <v>9</v>
@@ -18324,13 +18327,13 @@
     </row>
     <row r="1059" spans="1:4">
       <c r="A1059" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1059" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1059" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1059" t="s">
         <v>7</v>
@@ -18341,7 +18344,7 @@
         <v>846</v>
       </c>
       <c r="B1060" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1060" t="s">
         <v>6</v>
@@ -18358,7 +18361,7 @@
         <v>51</v>
       </c>
       <c r="C1061" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1061" t="s">
         <v>9</v>
@@ -18372,7 +18375,7 @@
         <v>17</v>
       </c>
       <c r="C1062" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1062" t="s">
         <v>7</v>
@@ -18397,10 +18400,10 @@
         <v>849</v>
       </c>
       <c r="B1064" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1064" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1064" t="s">
         <v>9</v>
@@ -18467,10 +18470,10 @@
         <v>854</v>
       </c>
       <c r="B1069" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1069" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1069" t="s">
         <v>9</v>
@@ -18478,13 +18481,13 @@
     </row>
     <row r="1070" spans="1:4">
       <c r="A1070" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1070" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1070" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1070" t="s">
         <v>7</v>
@@ -18498,7 +18501,7 @@
         <v>67</v>
       </c>
       <c r="C1071" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D1071" t="s">
         <v>7</v>
@@ -18512,7 +18515,7 @@
         <v>15</v>
       </c>
       <c r="C1072" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1072" t="s">
         <v>9</v>
@@ -18537,7 +18540,7 @@
         <v>140</v>
       </c>
       <c r="B1074" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1074" t="s">
         <v>15</v>
@@ -18551,10 +18554,10 @@
         <v>857</v>
       </c>
       <c r="B1075" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1075" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1075" t="s">
         <v>9</v>
@@ -18568,7 +18571,7 @@
         <v>51</v>
       </c>
       <c r="C1076" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1076" t="s">
         <v>9</v>
@@ -18582,7 +18585,7 @@
         <v>17</v>
       </c>
       <c r="C1077" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1077" t="s">
         <v>7</v>
@@ -18596,7 +18599,7 @@
         <v>51</v>
       </c>
       <c r="C1078" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1078" t="s">
         <v>9</v>
@@ -18607,10 +18610,10 @@
         <v>860</v>
       </c>
       <c r="B1079" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1079" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1079" t="s">
         <v>9</v>
@@ -18621,10 +18624,10 @@
         <v>861</v>
       </c>
       <c r="B1080" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1080" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1080" t="s">
         <v>9</v>
@@ -18677,10 +18680,10 @@
         <v>16</v>
       </c>
       <c r="B1084" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1084" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1084" t="s">
         <v>9</v>
@@ -18694,7 +18697,7 @@
         <v>271</v>
       </c>
       <c r="C1085" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1085" t="s">
         <v>7</v>
@@ -18719,7 +18722,7 @@
         <v>803</v>
       </c>
       <c r="B1087" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1087" t="s">
         <v>6</v>
@@ -18764,7 +18767,7 @@
         <v>111</v>
       </c>
       <c r="C1090" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1090" t="s">
         <v>7</v>
@@ -18814,13 +18817,13 @@
     </row>
     <row r="1094" spans="1:4">
       <c r="A1094" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1094" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1094" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1094" t="s">
         <v>9</v>
@@ -18842,13 +18845,13 @@
     </row>
     <row r="1096" spans="1:4">
       <c r="A1096" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1096" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1096" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1096" t="s">
         <v>9</v>
@@ -18876,7 +18879,7 @@
         <v>67</v>
       </c>
       <c r="C1098" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D1098" t="s">
         <v>7</v>
@@ -18898,13 +18901,13 @@
     </row>
     <row r="1100" spans="1:4">
       <c r="A1100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1100" t="s">
         <v>17</v>
       </c>
       <c r="C1100" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1100" t="s">
         <v>7</v>
@@ -18926,13 +18929,13 @@
     </row>
     <row r="1102" spans="1:4">
       <c r="A1102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1102" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1102" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1102" t="s">
         <v>7</v>
@@ -18946,7 +18949,7 @@
         <v>271</v>
       </c>
       <c r="C1103" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1103" t="s">
         <v>7</v>
@@ -18974,7 +18977,7 @@
         <v>271</v>
       </c>
       <c r="C1105" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1105" t="s">
         <v>7</v>
@@ -18988,7 +18991,7 @@
         <v>271</v>
       </c>
       <c r="C1106" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1106" t="s">
         <v>7</v>
@@ -19002,7 +19005,7 @@
         <v>271</v>
       </c>
       <c r="C1107" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1107" t="s">
         <v>7</v>
@@ -19016,7 +19019,7 @@
         <v>271</v>
       </c>
       <c r="C1108" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1108" t="s">
         <v>7</v>
@@ -19030,7 +19033,7 @@
         <v>271</v>
       </c>
       <c r="C1109" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1109" t="s">
         <v>7</v>
@@ -19044,7 +19047,7 @@
         <v>271</v>
       </c>
       <c r="C1110" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1110" t="s">
         <v>7</v>
@@ -19058,7 +19061,7 @@
         <v>271</v>
       </c>
       <c r="C1111" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1111" t="s">
         <v>7</v>
@@ -19072,7 +19075,7 @@
         <v>271</v>
       </c>
       <c r="C1112" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1112" t="s">
         <v>7</v>
@@ -19083,10 +19086,10 @@
         <v>293</v>
       </c>
       <c r="B1113" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1113" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1113" t="s">
         <v>9</v>
@@ -19100,7 +19103,7 @@
         <v>271</v>
       </c>
       <c r="C1114" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1114" t="s">
         <v>7</v>
@@ -19114,7 +19117,7 @@
         <v>271</v>
       </c>
       <c r="C1115" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1115" t="s">
         <v>7</v>
@@ -19139,10 +19142,10 @@
         <v>293</v>
       </c>
       <c r="B1117" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1117" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1117" t="s">
         <v>9</v>
@@ -19164,13 +19167,13 @@
     </row>
     <row r="1119" spans="1:4">
       <c r="A1119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1119" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1119" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1119" t="s">
         <v>7</v>
@@ -19184,7 +19187,7 @@
         <v>271</v>
       </c>
       <c r="C1120" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1120" t="s">
         <v>7</v>
@@ -19198,7 +19201,7 @@
         <v>271</v>
       </c>
       <c r="C1121" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1121" t="s">
         <v>7</v>
@@ -19209,10 +19212,10 @@
         <v>16</v>
       </c>
       <c r="B1122" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1122" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1122" t="s">
         <v>9</v>
@@ -19240,7 +19243,7 @@
         <v>111</v>
       </c>
       <c r="C1124" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1124" t="s">
         <v>7</v>
@@ -19251,10 +19254,10 @@
         <v>892</v>
       </c>
       <c r="B1125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1125" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1125" t="s">
         <v>7</v>
@@ -19268,7 +19271,7 @@
         <v>235</v>
       </c>
       <c r="C1126" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1126" t="s">
         <v>7</v>
@@ -19282,7 +19285,7 @@
         <v>271</v>
       </c>
       <c r="C1127" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1127" t="s">
         <v>7</v>
@@ -19296,7 +19299,7 @@
         <v>271</v>
       </c>
       <c r="C1128" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1128" t="s">
         <v>7</v>
@@ -19310,7 +19313,7 @@
         <v>271</v>
       </c>
       <c r="C1129" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1129" t="s">
         <v>7</v>
@@ -19324,7 +19327,7 @@
         <v>271</v>
       </c>
       <c r="C1130" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1130" t="s">
         <v>7</v>
@@ -19338,7 +19341,7 @@
         <v>271</v>
       </c>
       <c r="C1131" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1131" t="s">
         <v>7</v>
@@ -19352,7 +19355,7 @@
         <v>271</v>
       </c>
       <c r="C1132" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1132" t="s">
         <v>7</v>
@@ -19366,7 +19369,7 @@
         <v>271</v>
       </c>
       <c r="C1133" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1133" t="s">
         <v>7</v>
@@ -19380,7 +19383,7 @@
         <v>271</v>
       </c>
       <c r="C1134" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1134" t="s">
         <v>7</v>
@@ -19394,7 +19397,7 @@
         <v>271</v>
       </c>
       <c r="C1135" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1135" t="s">
         <v>7</v>
@@ -19408,7 +19411,7 @@
         <v>271</v>
       </c>
       <c r="C1136" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1136" t="s">
         <v>7</v>
@@ -19422,7 +19425,7 @@
         <v>271</v>
       </c>
       <c r="C1137" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1137" t="s">
         <v>7</v>
@@ -19436,7 +19439,7 @@
         <v>271</v>
       </c>
       <c r="C1138" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1138" t="s">
         <v>7</v>
@@ -19450,7 +19453,7 @@
         <v>271</v>
       </c>
       <c r="C1139" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1139" t="s">
         <v>7</v>
@@ -19461,7 +19464,7 @@
         <v>907</v>
       </c>
       <c r="B1140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1140" t="s">
         <v>6</v>
@@ -19475,7 +19478,7 @@
         <v>12</v>
       </c>
       <c r="B1141" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1141" t="s">
         <v>6</v>
@@ -19489,10 +19492,10 @@
         <v>908</v>
       </c>
       <c r="B1142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1142" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1142" t="s">
         <v>7</v>
@@ -19503,10 +19506,10 @@
         <v>909</v>
       </c>
       <c r="B1143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1143" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1143" t="s">
         <v>7</v>
@@ -19517,10 +19520,10 @@
         <v>910</v>
       </c>
       <c r="B1144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1144" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1144" t="s">
         <v>7</v>
@@ -19534,7 +19537,7 @@
         <v>235</v>
       </c>
       <c r="C1145" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1145" t="s">
         <v>7</v>
@@ -19548,7 +19551,7 @@
         <v>271</v>
       </c>
       <c r="C1146" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1146" t="s">
         <v>7</v>
@@ -19562,7 +19565,7 @@
         <v>271</v>
       </c>
       <c r="C1147" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1147" t="s">
         <v>7</v>
@@ -19576,7 +19579,7 @@
         <v>271</v>
       </c>
       <c r="C1148" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1148" t="s">
         <v>7</v>
@@ -19590,7 +19593,7 @@
         <v>271</v>
       </c>
       <c r="C1149" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1149" t="s">
         <v>7</v>
@@ -19604,7 +19607,7 @@
         <v>271</v>
       </c>
       <c r="C1150" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1150" t="s">
         <v>7</v>
@@ -19615,10 +19618,10 @@
         <v>12</v>
       </c>
       <c r="B1151" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1151" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1151" t="s">
         <v>9</v>
@@ -19626,13 +19629,13 @@
     </row>
     <row r="1152" spans="1:4">
       <c r="A1152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1152" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1152" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1152" t="s">
         <v>7</v>
@@ -19646,7 +19649,7 @@
         <v>235</v>
       </c>
       <c r="C1153" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1153" t="s">
         <v>7</v>
@@ -19660,7 +19663,7 @@
         <v>235</v>
       </c>
       <c r="C1154" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1154" t="s">
         <v>7</v>
@@ -19713,10 +19716,10 @@
         <v>922</v>
       </c>
       <c r="B1158" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1158" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1158" t="s">
         <v>9</v>
@@ -19730,7 +19733,7 @@
         <v>111</v>
       </c>
       <c r="C1159" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1159" t="s">
         <v>7</v>
@@ -19755,7 +19758,7 @@
         <v>925</v>
       </c>
       <c r="B1161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1161" t="s">
         <v>6</v>
@@ -19783,10 +19786,10 @@
         <v>927</v>
       </c>
       <c r="B1163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1163" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1163" t="s">
         <v>7</v>
@@ -19853,10 +19856,10 @@
         <v>932</v>
       </c>
       <c r="B1168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1168" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1168" t="s">
         <v>7</v>
@@ -19867,10 +19870,10 @@
         <v>933</v>
       </c>
       <c r="B1169" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1169" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1169" t="s">
         <v>7</v>
@@ -19923,7 +19926,7 @@
         <v>121</v>
       </c>
       <c r="C1173" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="D1173" t="s">
         <v>7</v>
@@ -19934,10 +19937,10 @@
         <v>16</v>
       </c>
       <c r="B1174" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1174" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1174" t="s">
         <v>9</v>
@@ -19951,7 +19954,7 @@
         <v>271</v>
       </c>
       <c r="C1175" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1175" t="s">
         <v>7</v>
@@ -19965,7 +19968,7 @@
         <v>271</v>
       </c>
       <c r="C1176" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1176" t="s">
         <v>7</v>
@@ -19979,7 +19982,7 @@
         <v>271</v>
       </c>
       <c r="C1177" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1177" t="s">
         <v>7</v>
@@ -19993,7 +19996,7 @@
         <v>271</v>
       </c>
       <c r="C1178" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1178" t="s">
         <v>7</v>
@@ -20007,7 +20010,7 @@
         <v>271</v>
       </c>
       <c r="C1179" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1179" t="s">
         <v>7</v>
@@ -20021,7 +20024,7 @@
         <v>271</v>
       </c>
       <c r="C1180" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1180" t="s">
         <v>7</v>
@@ -20032,10 +20035,10 @@
         <v>16</v>
       </c>
       <c r="B1181" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1181" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1181" t="s">
         <v>9</v>
@@ -20049,7 +20052,7 @@
         <v>111</v>
       </c>
       <c r="C1182" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1182" t="s">
         <v>7</v>
@@ -20060,10 +20063,10 @@
         <v>943</v>
       </c>
       <c r="B1183" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1183" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1183" t="s">
         <v>7</v>
@@ -20077,7 +20080,7 @@
         <v>271</v>
       </c>
       <c r="C1184" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1184" t="s">
         <v>7</v>
@@ -20116,10 +20119,10 @@
         <v>947</v>
       </c>
       <c r="B1187" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1187" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1187" t="s">
         <v>9</v>
@@ -20161,7 +20164,7 @@
         <v>111</v>
       </c>
       <c r="C1190" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1190" t="s">
         <v>7</v>
@@ -20172,10 +20175,10 @@
         <v>951</v>
       </c>
       <c r="B1191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1191" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1191" t="s">
         <v>7</v>
@@ -20186,10 +20189,10 @@
         <v>952</v>
       </c>
       <c r="B1192" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1192" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1192" t="s">
         <v>7</v>
@@ -20200,10 +20203,10 @@
         <v>953</v>
       </c>
       <c r="B1193" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1193" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1193" t="s">
         <v>7</v>
@@ -20228,10 +20231,10 @@
         <v>74</v>
       </c>
       <c r="B1195" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1195" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1195" t="s">
         <v>9</v>
@@ -20242,7 +20245,7 @@
         <v>955</v>
       </c>
       <c r="B1196" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1196" t="s">
         <v>6</v>
@@ -20256,7 +20259,7 @@
         <v>956</v>
       </c>
       <c r="B1197" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1197" t="s">
         <v>6</v>
@@ -20270,7 +20273,7 @@
         <v>957</v>
       </c>
       <c r="B1198" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1198" t="s">
         <v>6</v>
@@ -20354,10 +20357,10 @@
         <v>16</v>
       </c>
       <c r="B1204" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1204" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1204" t="s">
         <v>9</v>
@@ -20396,10 +20399,10 @@
         <v>74</v>
       </c>
       <c r="B1207" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1207" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1207" t="s">
         <v>9</v>
@@ -20438,7 +20441,7 @@
         <v>12</v>
       </c>
       <c r="B1210" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1210" t="s">
         <v>6</v>
@@ -20452,7 +20455,7 @@
         <v>967</v>
       </c>
       <c r="B1211" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1211" t="s">
         <v>6</v>
@@ -20469,7 +20472,7 @@
         <v>271</v>
       </c>
       <c r="C1212" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1212" t="s">
         <v>7</v>
@@ -20483,7 +20486,7 @@
         <v>271</v>
       </c>
       <c r="C1213" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1213" t="s">
         <v>7</v>
@@ -20497,7 +20500,7 @@
         <v>271</v>
       </c>
       <c r="C1214" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1214" t="s">
         <v>7</v>
@@ -20511,7 +20514,7 @@
         <v>271</v>
       </c>
       <c r="C1215" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1215" t="s">
         <v>7</v>
@@ -20525,7 +20528,7 @@
         <v>271</v>
       </c>
       <c r="C1216" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1216" t="s">
         <v>7</v>
@@ -20539,7 +20542,7 @@
         <v>271</v>
       </c>
       <c r="C1217" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1217" t="s">
         <v>7</v>
@@ -20553,7 +20556,7 @@
         <v>271</v>
       </c>
       <c r="C1218" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1218" t="s">
         <v>7</v>
@@ -20567,7 +20570,7 @@
         <v>271</v>
       </c>
       <c r="C1219" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1219" t="s">
         <v>7</v>
@@ -20581,7 +20584,7 @@
         <v>271</v>
       </c>
       <c r="C1220" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1220" t="s">
         <v>7</v>
@@ -20595,7 +20598,7 @@
         <v>271</v>
       </c>
       <c r="C1221" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1221" t="s">
         <v>7</v>
@@ -20609,7 +20612,7 @@
         <v>271</v>
       </c>
       <c r="C1222" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1222" t="s">
         <v>7</v>
@@ -20623,7 +20626,7 @@
         <v>271</v>
       </c>
       <c r="C1223" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1223" t="s">
         <v>7</v>
@@ -20637,7 +20640,7 @@
         <v>271</v>
       </c>
       <c r="C1224" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1224" t="s">
         <v>7</v>
@@ -20651,7 +20654,7 @@
         <v>271</v>
       </c>
       <c r="C1225" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1225" t="s">
         <v>7</v>
@@ -20665,7 +20668,7 @@
         <v>271</v>
       </c>
       <c r="C1226" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1226" t="s">
         <v>7</v>
@@ -20679,7 +20682,7 @@
         <v>271</v>
       </c>
       <c r="C1227" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1227" t="s">
         <v>7</v>
@@ -20693,7 +20696,7 @@
         <v>271</v>
       </c>
       <c r="C1228" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1228" t="s">
         <v>7</v>
@@ -20707,7 +20710,7 @@
         <v>271</v>
       </c>
       <c r="C1229" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1229" t="s">
         <v>7</v>
@@ -20721,7 +20724,7 @@
         <v>271</v>
       </c>
       <c r="C1230" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1230" t="s">
         <v>7</v>
@@ -20735,7 +20738,7 @@
         <v>271</v>
       </c>
       <c r="C1231" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1231" t="s">
         <v>7</v>
@@ -20746,10 +20749,10 @@
         <v>16</v>
       </c>
       <c r="B1232" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1232" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1232" t="s">
         <v>9</v>
@@ -20763,7 +20766,7 @@
         <v>271</v>
       </c>
       <c r="C1233" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1233" t="s">
         <v>7</v>
@@ -20791,7 +20794,7 @@
         <v>51</v>
       </c>
       <c r="C1235" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1235" t="s">
         <v>9</v>
@@ -20816,10 +20819,10 @@
         <v>992</v>
       </c>
       <c r="B1237" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1237" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1237" t="s">
         <v>7</v>
@@ -20830,10 +20833,10 @@
         <v>993</v>
       </c>
       <c r="B1238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1238" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D1238" t="s">
         <v>7</v>
@@ -20847,7 +20850,7 @@
         <v>271</v>
       </c>
       <c r="C1239" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1239" t="s">
         <v>7</v>
@@ -20861,7 +20864,7 @@
         <v>508</v>
       </c>
       <c r="C1240" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1240" t="s">
         <v>7</v>
@@ -20872,10 +20875,10 @@
         <v>293</v>
       </c>
       <c r="B1241" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1241" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1241" t="s">
         <v>9</v>
@@ -20889,7 +20892,7 @@
         <v>111</v>
       </c>
       <c r="C1242" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1242" t="s">
         <v>7</v>
@@ -20917,7 +20920,7 @@
         <v>235</v>
       </c>
       <c r="C1244" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1244" t="s">
         <v>7</v>
@@ -20953,13 +20956,13 @@
     </row>
     <row r="1247" spans="1:4">
       <c r="A1247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1247" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1247" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1247" t="s">
         <v>9</v>
@@ -21085,7 +21088,7 @@
         <v>508</v>
       </c>
       <c r="C1256" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1256" t="s">
         <v>7</v>
@@ -21099,7 +21102,7 @@
         <v>508</v>
       </c>
       <c r="C1257" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1257" t="s">
         <v>7</v>
@@ -21113,7 +21116,7 @@
         <v>508</v>
       </c>
       <c r="C1258" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1258" t="s">
         <v>7</v>
@@ -21141,7 +21144,7 @@
         <v>508</v>
       </c>
       <c r="C1260" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1260" t="s">
         <v>7</v>
@@ -21166,10 +21169,10 @@
         <v>1014</v>
       </c>
       <c r="B1262" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1262" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1262" t="s">
         <v>9</v>
@@ -21197,7 +21200,7 @@
         <v>235</v>
       </c>
       <c r="C1264" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1264" t="s">
         <v>7</v>
@@ -21211,7 +21214,7 @@
         <v>508</v>
       </c>
       <c r="C1265" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1265" t="s">
         <v>7</v>
@@ -21225,7 +21228,7 @@
         <v>508</v>
       </c>
       <c r="C1266" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1266" t="s">
         <v>7</v>
@@ -21239,7 +21242,7 @@
         <v>508</v>
       </c>
       <c r="C1267" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1267" t="s">
         <v>7</v>
@@ -21253,7 +21256,7 @@
         <v>508</v>
       </c>
       <c r="C1268" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1268" t="s">
         <v>7</v>
@@ -21267,7 +21270,7 @@
         <v>508</v>
       </c>
       <c r="C1269" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1269" t="s">
         <v>7</v>
@@ -21281,7 +21284,7 @@
         <v>235</v>
       </c>
       <c r="C1270" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1270" t="s">
         <v>7</v>
@@ -21295,7 +21298,7 @@
         <v>508</v>
       </c>
       <c r="C1271" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1271" t="s">
         <v>7</v>
@@ -21309,7 +21312,7 @@
         <v>235</v>
       </c>
       <c r="C1272" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1272" t="s">
         <v>7</v>
@@ -21323,7 +21326,7 @@
         <v>508</v>
       </c>
       <c r="C1273" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1273" t="s">
         <v>7</v>
@@ -21337,7 +21340,7 @@
         <v>235</v>
       </c>
       <c r="C1274" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D1274" t="s">
         <v>7</v>
@@ -21376,10 +21379,10 @@
         <v>1027</v>
       </c>
       <c r="B1277" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1277" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1277" t="s">
         <v>9</v>
@@ -21390,10 +21393,10 @@
         <v>1028</v>
       </c>
       <c r="B1278" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1278" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1278" t="s">
         <v>9</v>
@@ -21401,13 +21404,13 @@
     </row>
     <row r="1279" spans="1:4">
       <c r="A1279" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1279" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1279" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1279" t="s">
         <v>7</v>
@@ -21432,10 +21435,10 @@
         <v>1031</v>
       </c>
       <c r="B1281" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1281" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D1281" t="s">
         <v>9</v>
@@ -21446,7 +21449,7 @@
         <v>12</v>
       </c>
       <c r="B1282" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1282" t="s">
         <v>6</v>
@@ -21471,13 +21474,13 @@
     </row>
     <row r="1284" spans="1:4">
       <c r="A1284" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1284" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1284" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1284" t="s">
         <v>7</v>
@@ -21491,7 +21494,7 @@
         <v>508</v>
       </c>
       <c r="C1285" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1285" t="s">
         <v>7</v>
@@ -21505,7 +21508,7 @@
         <v>271</v>
       </c>
       <c r="C1286" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1286" t="s">
         <v>7</v>
@@ -21519,7 +21522,7 @@
         <v>271</v>
       </c>
       <c r="C1287" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D1287" t="s">
         <v>7</v>
@@ -21533,7 +21536,7 @@
         <v>508</v>
       </c>
       <c r="C1288" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1288" t="s">
         <v>7</v>
@@ -21547,7 +21550,7 @@
         <v>508</v>
       </c>
       <c r="C1289" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1289" t="s">
         <v>7</v>
@@ -21561,7 +21564,7 @@
         <v>508</v>
       </c>
       <c r="C1290" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1290" t="s">
         <v>7</v>
@@ -21575,7 +21578,7 @@
         <v>508</v>
       </c>
       <c r="C1291" t="s">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D1291" t="s">
         <v>7</v>
@@ -21659,7 +21662,7 @@
         <v>51</v>
       </c>
       <c r="C1297" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1297" t="s">
         <v>9</v>
@@ -21670,10 +21673,10 @@
         <v>445</v>
       </c>
       <c r="B1298" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1298" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1298" t="s">
         <v>7</v>
@@ -21687,7 +21690,7 @@
         <v>51</v>
       </c>
       <c r="C1299" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1299" t="s">
         <v>9</v>
@@ -21709,13 +21712,13 @@
     </row>
     <row r="1301" spans="1:4">
       <c r="A1301" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1301" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1301" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1301" t="s">
         <v>7</v>
@@ -21771,7 +21774,7 @@
         <v>51</v>
       </c>
       <c r="C1305" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1305" t="s">
         <v>9</v>
@@ -21799,7 +21802,7 @@
         <v>51</v>
       </c>
       <c r="C1307" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D1307" t="s">
         <v>9</v>
@@ -21835,13 +21838,13 @@
     </row>
     <row r="1310" spans="1:4">
       <c r="A1310" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1310" t="s">
         <v>111</v>
       </c>
       <c r="C1310" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1310" t="s">
         <v>7</v>
@@ -21849,13 +21852,13 @@
     </row>
     <row r="1311" spans="1:4">
       <c r="A1311" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1311" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C1311" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1311" t="s">
         <v>9</v>
@@ -21894,10 +21897,10 @@
         <v>12</v>
       </c>
       <c r="B1314" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1314" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1314" t="s">
         <v>9</v>
